--- a/output/damage/TWN_osm_fl_rcp8p5_damage_2.xlsx
+++ b/output/damage/TWN_osm_fl_rcp8p5_damage_2.xlsx
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>182253.5485219943</v>
+        <v>166056.6276821388</v>
       </c>
       <c r="F3" t="n">
-        <v>32058.09504989567</v>
+        <v>124542.4707616041</v>
       </c>
       <c r="G3" t="n">
-        <v>619535.9603840357</v>
+        <v>207570.7846026735</v>
       </c>
     </row>
     <row r="4">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>190944.1694377596</v>
+        <v>173974.9108291015</v>
       </c>
       <c r="F5" t="n">
-        <v>33586.76076652831</v>
+        <v>130481.1831218261</v>
       </c>
       <c r="G5" t="n">
-        <v>649078.0582967823</v>
+        <v>217468.6385363768</v>
       </c>
     </row>
     <row r="6">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206954.6998408932</v>
+        <v>188562.5811801447</v>
       </c>
       <c r="F7" t="n">
-        <v>36402.98634690958</v>
+        <v>141421.9358851085</v>
       </c>
       <c r="G7" t="n">
-        <v>703502.7836862367</v>
+        <v>235703.2264751808</v>
       </c>
     </row>
     <row r="8">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219440.479051215</v>
+        <v>199938.7459048583</v>
       </c>
       <c r="F9" t="n">
-        <v>38599.21407439443</v>
+        <v>149954.0594286438</v>
       </c>
       <c r="G9" t="n">
-        <v>745945.7938604734</v>
+        <v>249923.4323810729</v>
       </c>
     </row>
     <row r="10">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>241927.1982951296</v>
+        <v>220427.0644893872</v>
       </c>
       <c r="F11" t="n">
-        <v>42554.59046474623</v>
+        <v>165320.2983670404</v>
       </c>
       <c r="G11" t="n">
-        <v>822385.080314112</v>
+        <v>275533.830611734</v>
       </c>
     </row>
     <row r="12">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>255998.3659019101</v>
+        <v>233247.7237263739</v>
       </c>
       <c r="F13" t="n">
-        <v>45029.68536555548</v>
+        <v>174935.7927947804</v>
       </c>
       <c r="G13" t="n">
-        <v>870217.3140768439</v>
+        <v>291559.6546579674</v>
       </c>
     </row>
     <row r="14">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>268765.7740462609</v>
+        <v>244880.4889476037</v>
       </c>
       <c r="F15" t="n">
-        <v>47275.4511525685</v>
+        <v>183660.3667107028</v>
       </c>
       <c r="G15" t="n">
-        <v>913617.6677625271</v>
+        <v>306100.6111845047</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.203064871394721</v>
+        <v>22.77673374192634</v>
       </c>
       <c r="F16" t="n">
-        <v>4.379513591619965</v>
+        <v>17.08255030644475</v>
       </c>
       <c r="G16" t="n">
-        <v>14.52321450896696</v>
+        <v>28.47091717740792</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>285986.4004696715</v>
+        <v>260570.7137670146</v>
       </c>
       <c r="F17" t="n">
-        <v>50304.53060357199</v>
+        <v>195428.0353252609</v>
       </c>
       <c r="G17" t="n">
-        <v>972155.8823331743</v>
+        <v>325713.3922087682</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>135.2915251428506</v>
+        <v>334.8340024523636</v>
       </c>
       <c r="F18" t="n">
-        <v>64.38192944132899</v>
+        <v>251.1255018392727</v>
       </c>
       <c r="G18" t="n">
-        <v>213.5014659086219</v>
+        <v>418.5425030654545</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>299838.2874036516</v>
+        <v>273191.5798623238</v>
       </c>
       <c r="F19" t="n">
-        <v>52741.05439995971</v>
+        <v>204893.6848967428</v>
       </c>
       <c r="G19" t="n">
-        <v>1019242.713532726</v>
+        <v>341489.4748279047</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>237.1977584939207</v>
+        <v>587.0424977868289</v>
       </c>
       <c r="F20" t="n">
-        <v>112.8766146650539</v>
+        <v>440.2818733401216</v>
       </c>
       <c r="G20" t="n">
-        <v>374.3181185607876</v>
+        <v>733.8031222335361</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>314138.2698371293</v>
+        <v>286220.719092118</v>
       </c>
       <c r="F21" t="n">
-        <v>55256.39744695087</v>
+        <v>214665.5393190885</v>
       </c>
       <c r="G21" t="n">
-        <v>1067852.759385031</v>
+        <v>357775.8988651475</v>
       </c>
     </row>
   </sheetData>
